--- a/biology/Botanique/Pourouma_guianensis/Pourouma_guianensis.xlsx
+++ b/biology/Botanique/Pourouma_guianensis/Pourouma_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pourouma guianensis est une espèce de plantes à fleurs de la famille des Urticaceae (anciennement des Cecropiaceae) C'est un arbre natif des régions néotropicales.
 C'est l'espèce type du genre Pourouma Aubl.
-En Guyane, on le connaît sous les noms de Bois-canon,  mâle bois-canon, Bois canon mâle[3], Pourouma, Pouroumier de la Guyane (Créole)[4].
-Au Suriname, on le nomme Bospapaja (Hollandais), Granboesipapaja (Sranan tongo), Boroma (Arawak) Yarayara, Poeroema (Carib)[5].
-On l'appelle Thæthæ dau (Piaroa), Chaparro de agua, Majanajana[3], Yagrumo sunsun (Espagnol) au Venezuela, Caimaron en Colombie[4], Ambaibillo, Buruma, Uva-de-monte ailleurs dans le monde hispanophone, Amapatí, Embaúba-torém, Embaúba-da-mata, Embaubarana, Imbaúba-da-mata, Imbaubarana, Embaubarana-benguê, Itararanga, Pau-de-jacú, Tararanga-branca, Tararanga au Brésil, et Male trumpet tree en Anglais[6].
+En Guyane, on le connaît sous les noms de Bois-canon,  mâle bois-canon, Bois canon mâle, Pourouma, Pouroumier de la Guyane (Créole).
+Au Suriname, on le nomme Bospapaja (Hollandais), Granboesipapaja (Sranan tongo), Boroma (Arawak) Yarayara, Poeroema (Carib).
+On l'appelle Thæthæ dau (Piaroa), Chaparro de agua, Majanajana, Yagrumo sunsun (Espagnol) au Venezuela, Caimaron en Colombie, Ambaibillo, Buruma, Uva-de-monte ailleurs dans le monde hispanophone, Amapatí, Embaúba-torém, Embaúba-da-mata, Embaubarana, Imbaúba-da-mata, Imbaubarana, Embaubarana-benguê, Itararanga, Pau-de-jacú, Tararanga-branca, Tararanga au Brésil, et Male trumpet tree en Anglais.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pourouma guianensis est un arbre du sous-étage ou de la canopée, haut de 10 à 25(30) m.
 Ses rameaux feuillés épais de 3-15 mm, sont marqués par les cicatrices des stipules, couverts d'une pubérulence blanchâtre, hirtelleuse à subtomenteuse et à poils granuleux bruns pluricellulaires, denses à clairsemés, mélangés à des poils clairsemés à denses, courts, blancs ou jaunes, appliqués.
@@ -542,9 +556,9 @@
 Le périanthe en tube est haut de (2)3-4 mm, scabre à pubérulent à velouté principalement sur la partie inférieure.
 Le stigmate discoïde, sub-pelté, mesure 1-1,5 mm de diamètre.
 Le périanthe fructifère est ovoïde, haut d'environ (12)15(16) mm, scabre à peu pubérulent ou subvelouteux, avec un pédicelle long de 4 à 8(20) mm.
-Le fruit est un akène ressemblant à une drupe, car inclus dans le périanthe velouté, long de 1,5 cm qui devient charnu et brun à maturité, de forme ovoïde à elliptique, au sommet brusquement acuminé, à base obtuse-arrondie, et mesurant 10 à 15 mm de long pour 6 a 10 mm de diamètre[4],[6].
-Pourouma guianensis peut être difficile à distinguer du Pourouma bicolor[3].
-La sous-espèce guianensis est extrêmement variable, en particulier dans le bassin supérieur de l'Amazone[7],[5],[8].
+Le fruit est un akène ressemblant à une drupe, car inclus dans le périanthe velouté, long de 1,5 cm qui devient charnu et brun à maturité, de forme ovoïde à elliptique, au sommet brusquement acuminé, à base obtuse-arrondie, et mesurant 10 à 15 mm de long pour 6 a 10 mm de diamètre,.
+Pourouma guianensis peut être difficile à distinguer du Pourouma bicolor.
+La sous-espèce guianensis est extrêmement variable, en particulier dans le bassin supérieur de l'Amazone.
 </t>
         </is>
       </c>
@@ -573,12 +587,14 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>On rencontre Pourouma guianensis en Colombie, au Venezuela, au Guyana, au Suriname, en Guyane, en Équateur, au Pérou, au Brésil et en Bolivie[3]
-La sous-espèce subsp. guianensis est présente en Colombie, au Venezuela (Delta Amacuro, Bolívar, Amazonas), au Guyana, au Suriname, en Guyane, en Équateur, au Pérou, au Brésil, en Bolivie[3].
-La sous-espèce, subsp. venezuelensis (Cuatrec.) C.C. Berg &amp; van Heusden, se trouve dans les montagnes côtières du Venezuela[7].
-En Amazonie, il est présent[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On rencontre Pourouma guianensis en Colombie, au Venezuela, au Guyana, au Suriname, en Guyane, en Équateur, au Pérou, au Brésil et en Bolivie
+La sous-espèce subsp. guianensis est présente en Colombie, au Venezuela (Delta Amacuro, Bolívar, Amazonas), au Guyana, au Suriname, en Guyane, en Équateur, au Pérou, au Brésil, en Bolivie.
+La sous-espèce, subsp. venezuelensis (Cuatrec.) C.C. Berg &amp; van Heusden, se trouve dans les montagnes côtières du Venezuela.
+En Amazonie, il est présent :
 dans le nord (y compris l'Amazonie du Venezuela, la Colombie, le Guyana, le Suriname, la Guyane, et le bassin supérieur du Rio Negro au nord du Brésil),
 dans l'ouest (des pentes orientales des Andes jusqu'à la partie occidentale de l'Amazonie brésilienne, y compris l'Amazonie équatorienne, péruvienne, bolivienne et sud-colombienne, et l'État d'Acre au nord-ouest du Brésil)
 dans le centre (de la frontière ouest du Brésil au bassin du Rio Tapajós).
@@ -611,21 +627,23 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Brésil, Pourouma guianensis est un arbre occasionnel du sous-bois, et des trouées forestières.
 Il affectionne les várzea hautes (forêts inondées à moins de 3 m de hauteur, avec une période d'inondation moyenne de moins de 50 jours par an),
 les forêts amazoniennes de terre ferme (non inondées), jusqu'à la forêt atlantique.
 C'est une espèce de succession secondaire, apparaissant après le stade pionnier, et/ou dans les interstices des derniers stades de succession, parmi des arbres âgés de 20-30 à 50-60 ans.
 Avec sa stature relativement basse de 15-20 m, elle occupe l'étage inférieur de la canopée dans la stratification forestière, parmi les arbres de plus de 5-15 m.
-Son feuillage semi-caduque chute partiellement de façon saisonnière. La poussée de nouvelles feuilles se produit simultanément à la chute, ainsi ces arbres ne restent jamais complètement sans feuilles[6].
-Pourouma guianensis subsp. guianensis affectionne les forêts sempervirentes de plaine ou de montagne, autour de 100–1 300 m d'altitude au Venezuela[3] et fleurit en octobre pour fructifier en janvier, octobre, novembre) dans les forêts de terre ferme de Guyane où il est commun[8].
-On peut le multiplier par graines[4].
+Son feuillage semi-caduque chute partiellement de façon saisonnière. La poussée de nouvelles feuilles se produit simultanément à la chute, ainsi ces arbres ne restent jamais complètement sans feuilles.
+Pourouma guianensis subsp. guianensis affectionne les forêts sempervirentes de plaine ou de montagne, autour de 100–1 300 m d'altitude au Venezuela et fleurit en octobre pour fructifier en janvier, octobre, novembre) dans les forêts de terre ferme de Guyane où il est commun.
+On peut le multiplier par graines.
 Ses feuilles servent de nourriture au paresseux.
-Ses fruits comestibles sont très appréciés de la faune[9].
-Ses graines sont disséminées par les oiseaux et les mammifères et germent préférentiellement lorsqu'elles sont semées à la surface du sol[10].
-Pourouma guianensis joue un rôle important dans la structuration des forêts anciennes[11].
-Son pollen a été étudié dans le cadre de la paléoécologie Amazonienne[12]
+Ses fruits comestibles sont très appréciés de la faune.
+Ses graines sont disséminées par les oiseaux et les mammifères et germent préférentiellement lorsqu'elles sont semées à la surface du sol.
+Pourouma guianensis joue un rôle important dans la structuration des forêts anciennes.
+Son pollen a été étudié dans le cadre de la paléoécologie Amazonienne
 </t>
         </is>
       </c>
@@ -654,16 +672,18 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits de Pourouma guianensis contiennent un pulpe comestible de couleur claire à maturité, que l'on peut consommer crue[4].
-Chez les amérindiens du Guyana, les feuilles abrasives de Pourouma guianensis sont utilisées comme du papier de verre, pour polir des objets en bois comme des pagaies, les arcs. Les cendres de ses feuilles peuvent être ajoutées à la gomme de manil servant à  fixer les pointes de flèches[13].
-Les fruits sont utilisés pour préparer une teinture[3]. L'écorce d'un Pourouma non identifié appelé Sarasara sert d'adjuvant pour fixer la teinture de roucou chez les Kali'na[14],[15].
-Le bois est utilisé pour la production de pâte de cellulose, de jouets, de cure-dents, de boîtes, de petits emballages et de charbon de bois[16],[17]. 
-L'arbre a des qualités ornementales qui le recommandent pour un usage paysager et les reboisements mixtes à visée de conservation[18].
-Les Indiens Waimiri Atroari utilisent l'écorce de cette espèce contre les symptômes de la grippe[19].
-L'huile essentielle de Pourouma guianensis a été analysée[20],[21].
-Les extraits de Pourouma guianensis ont montré des activités anti-leishmaniose[22], larvicides, antioxydantes, antibactériennes[23] et antifongiques[24].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de Pourouma guianensis contiennent un pulpe comestible de couleur claire à maturité, que l'on peut consommer crue.
+Chez les amérindiens du Guyana, les feuilles abrasives de Pourouma guianensis sont utilisées comme du papier de verre, pour polir des objets en bois comme des pagaies, les arcs. Les cendres de ses feuilles peuvent être ajoutées à la gomme de manil servant à  fixer les pointes de flèches.
+Les fruits sont utilisés pour préparer une teinture. L'écorce d'un Pourouma non identifié appelé Sarasara sert d'adjuvant pour fixer la teinture de roucou chez les Kali'na,.
+Le bois est utilisé pour la production de pâte de cellulose, de jouets, de cure-dents, de boîtes, de petits emballages et de charbon de bois,. 
+L'arbre a des qualités ornementales qui le recommandent pour un usage paysager et les reboisements mixtes à visée de conservation.
+Les Indiens Waimiri Atroari utilisent l'écorce de cette espèce contre les symptômes de la grippe.
+L'huile essentielle de Pourouma guianensis a été analysée,.
+Les extraits de Pourouma guianensis ont montré des activités anti-leishmaniose, larvicides, antioxydantes, antibactériennes et antifongiques.
 </t>
         </is>
       </c>
@@ -692,9 +712,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[25] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « POUROUMA Guianenſis. (Tabula 341.)
 Arbor ſexaginta-pedalis, ad ſummitatem ramoſa. Folia alterna, trilobata, ſuperne glabra, virentia, inferne tomentoſa, incana, petiolata. Stipula ad baſim petiolorum amplexicaulis, oppoſitifolia, ampla, oblonga, conica, latere interno dehiſcens, gemmam foliofam &amp; floriferam ſimul involvens, decidua Flores corymboſi, tres flores ſimul juncti in unoquoque ramo ; pedunculi dichotomi, axillares. Fructus ; capſula tumida, exſucca, ovata, villoſa.
 Florebat Novembri.
